--- a/LDDiagrams/children.xlsx
+++ b/LDDiagrams/children.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waled\Desktop\LittleDreamers\LDDiagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\LD\LDDiagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C82B438-E33C-452D-8B77-1BDCF37444C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B69C55-BB5E-4126-9A6A-231EE695D0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="children" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +576,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -737,12 +743,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,16 +1108,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="15.140625" style="1"/>
+    <col min="1" max="5" width="15.140625" style="1"/>
+    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="15.140625" style="1"/>
     <col min="11" max="11" width="27.85546875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="15.140625" style="1"/>
   </cols>
@@ -1123,28 +1134,28 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -27394,5 +27405,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>